--- a/Cleaned data.xlsx
+++ b/Cleaned data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshr\Desktop\power bi\power_BI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFF14A52-5514-4691-AA8F-7439FF47EA0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF8EAEB-318E-419F-A582-F54887851864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1815" yWindow="1815" windowWidth="21600" windowHeight="11295" xr2:uid="{0A67AC47-703D-4000-91FE-783A396178E8}"/>
   </bookViews>
@@ -5113,7 +5113,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5431,7 +5431,7 @@
   <dimension ref="A1:X631"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
